--- a/需求响应/data/EVA.xlsx
+++ b/需求响应/data/EVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40599DC9-0B1E-4247-9A50-F0CFA8CC3E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE440A0B-F6AC-4CA2-9175-3415BBD936DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3060" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="5850" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C6" sqref="C6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,25 +557,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/需求响应/data/EVA.xlsx
+++ b/需求响应/data/EVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE440A0B-F6AC-4CA2-9175-3415BBD936DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7E840-2BBB-4649-BC59-AB99B5FA5EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="5850" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="4860" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
